--- a/templ/template.xlsx
+++ b/templ/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\meowboy\project\slicer\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\meowboy\project\fam_card_extractor\templ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4170DD88-37BB-44C4-B0F8-CCFA6BDC60D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D92638-178B-4A13-A19D-A8B639503DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4AF6E293-F4CB-483F-91D0-C84E62C4BFCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{4AF6E293-F4CB-483F-91D0-C84E62C4BFCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Form" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="231">
   <si>
     <t>番号.</t>
     <phoneticPr fontId="1"/>
@@ -1200,9 +1200,6 @@
   </si>
   <si>
     <t>Kabupaten/Kota</t>
-  </si>
-  <si>
-    <t>2002年07月16日</t>
   </si>
 </sst>
 </file>
@@ -1966,6 +1963,114 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1987,21 +2092,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2014,108 +2104,81 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2123,6 +2186,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2151,93 +2235,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2556,7 +2553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18E50FB-8520-49DD-A0B6-8035B602094A}">
   <dimension ref="A1:AE60"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="42" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="84" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="42" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="84" workbookViewId="0">
       <selection activeCell="P17" sqref="P17:R17"/>
     </sheetView>
   </sheetViews>
@@ -2592,31 +2589,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="128" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
       <c r="D1" s="72"/>
       <c r="E1" s="71"/>
       <c r="F1" s="70"/>
       <c r="G1" s="69"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="109" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
       <c r="P1" s="12"/>
       <c r="Q1" s="68"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="109"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="88"/>
       <c r="V1" s="67" t="s">
         <v>209</v>
       </c>
@@ -2631,20 +2628,20 @@
       <c r="AE1" s="23"/>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="63"/>
       <c r="G2" s="62"/>
       <c r="H2" s="61"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
       <c r="M2" s="61"/>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
@@ -2653,7 +2650,7 @@
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
       <c r="T2" s="61"/>
-      <c r="U2" s="109"/>
+      <c r="U2" s="88"/>
       <c r="V2" s="60"/>
       <c r="W2" s="59"/>
       <c r="X2" s="59"/>
@@ -2666,22 +2663,22 @@
       <c r="AE2" s="23"/>
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
       <c r="F3" s="57"/>
       <c r="G3" s="56"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
@@ -2690,7 +2687,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="109"/>
+      <c r="U3" s="88"/>
       <c r="V3" s="55" t="s">
         <v>205</v>
       </c>
@@ -2709,16 +2706,16 @@
       <c r="AE3" s="23"/>
     </row>
     <row r="4" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="116" t="s">
         <v>202</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -2726,18 +2723,18 @@
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
-      <c r="N4" s="97" t="s">
+      <c r="N4" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="O4" s="97"/>
+      <c r="O4" s="118"/>
       <c r="P4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
-      <c r="S4" s="98"/>
-      <c r="T4" s="98"/>
-      <c r="U4" s="109"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="88"/>
       <c r="V4" s="50" t="s">
         <v>201</v>
       </c>
@@ -2762,37 +2759,37 @@
       <c r="AE4" s="23"/>
     </row>
     <row r="5" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="123" t="s">
+      <c r="I5" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="97" t="s">
+      <c r="N5" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="97"/>
+      <c r="O5" s="118"/>
       <c r="P5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="98"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="109"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="88"/>
       <c r="V5" s="50" t="s">
         <v>195</v>
       </c>
@@ -2817,37 +2814,37 @@
       <c r="AE5" s="23"/>
     </row>
     <row r="6" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="95"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="90" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="126" t="s">
         <v>189</v>
       </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="97" t="s">
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="118" t="s">
         <v>230</v>
       </c>
-      <c r="O6" s="97"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="109"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="88"/>
       <c r="V6" s="37"/>
       <c r="W6" s="23"/>
       <c r="X6" s="23"/>
@@ -2868,35 +2865,35 @@
       <c r="AE6" s="23"/>
     </row>
     <row r="7" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="97" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="O7" s="97"/>
+      <c r="O7" s="118"/>
       <c r="P7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="109"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="49" t="s">
         <v>184</v>
       </c>
@@ -2922,42 +2919,42 @@
       <c r="A8" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121" t="s">
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122" t="s">
+      <c r="G8" s="120"/>
+      <c r="H8" s="121" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="122"/>
+      <c r="I8" s="121"/>
       <c r="J8" s="29" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="121" t="s">
+      <c r="K8" s="120" t="s">
         <v>175</v>
       </c>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="107" t="s">
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="O8" s="107"/>
-      <c r="P8" s="108" t="s">
+      <c r="O8" s="134"/>
+      <c r="P8" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="120" t="s">
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="119" t="s">
         <v>172</v>
       </c>
-      <c r="T8" s="120"/>
-      <c r="U8" s="109"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="47" t="s">
         <v>171</v>
       </c>
@@ -2983,42 +2980,42 @@
     </row>
     <row r="9" spans="1:31" ht="13.5" customHeight="1">
       <c r="A9" s="30"/>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="112" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112" t="s">
+      <c r="G9" s="99"/>
+      <c r="H9" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="112"/>
+      <c r="I9" s="99"/>
       <c r="J9" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="112" t="s">
+      <c r="K9" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112" t="s">
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112" t="s">
+      <c r="O9" s="99"/>
+      <c r="P9" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="112"/>
-      <c r="R9" s="112"/>
-      <c r="S9" s="112" t="s">
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="T9" s="112"/>
-      <c r="U9" s="109"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="47" t="s">
         <v>166</v>
       </c>
@@ -3046,26 +3043,26 @@
       <c r="A10" s="29">
         <v>1</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="111"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="108"/>
       <c r="J10" s="46"/>
       <c r="K10" s="39"/>
       <c r="L10" s="39"/>
       <c r="M10" s="38"/>
-      <c r="N10" s="105"/>
-      <c r="O10" s="105"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="113"/>
-      <c r="U10" s="109"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="105"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="47" t="s">
         <v>160</v>
       </c>
@@ -3073,10 +3070,10 @@
         <v>159</v>
       </c>
       <c r="X10" s="23"/>
-      <c r="Y10" s="99" t="s">
+      <c r="Y10" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="Z10" s="101" t="s">
+      <c r="Z10" s="132" t="s">
         <v>219</v>
       </c>
       <c r="AA10" s="23"/>
@@ -3093,26 +3090,26 @@
       <c r="A11" s="29">
         <v>2</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="46"/>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
       <c r="M11" s="38"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="105"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113"/>
-      <c r="U11" s="109"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="105"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="47" t="s">
         <v>155</v>
       </c>
@@ -3120,8 +3117,8 @@
         <v>154</v>
       </c>
       <c r="X11" s="23"/>
-      <c r="Y11" s="100"/>
-      <c r="Z11" s="102"/>
+      <c r="Y11" s="131"/>
+      <c r="Z11" s="133"/>
       <c r="AA11" s="23"/>
       <c r="AB11" s="42" t="s">
         <v>153</v>
@@ -3136,26 +3133,26 @@
       <c r="A12" s="29">
         <v>3</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="46"/>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
       <c r="M12" s="38"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="105"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="113"/>
-      <c r="T12" s="113"/>
-      <c r="U12" s="109"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
+      <c r="S12" s="106"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="88"/>
       <c r="V12" s="47" t="s">
         <v>151</v>
       </c>
@@ -3183,26 +3180,26 @@
       <c r="A13" s="29">
         <v>4</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="46"/>
       <c r="K13" s="39"/>
       <c r="L13" s="39"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="105"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="113"/>
-      <c r="T13" s="113"/>
-      <c r="U13" s="109"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="105"/>
+      <c r="R13" s="105"/>
+      <c r="S13" s="106"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="37"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
@@ -3226,26 +3223,26 @@
       <c r="A14" s="29">
         <v>5</v>
       </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="111"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="46"/>
       <c r="K14" s="39"/>
       <c r="L14" s="39"/>
       <c r="M14" s="38"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="105"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="113"/>
-      <c r="T14" s="113"/>
-      <c r="U14" s="109"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="105"/>
+      <c r="S14" s="106"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="45" t="s">
         <v>143</v>
       </c>
@@ -3271,26 +3268,26 @@
       <c r="A15" s="29">
         <v>6</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
       <c r="J15" s="46"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
       <c r="M15" s="38"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="105"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="113"/>
-      <c r="T15" s="113"/>
-      <c r="U15" s="109"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="106"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="40" t="s">
         <v>138</v>
       </c>
@@ -3310,26 +3307,26 @@
       <c r="A16" s="29">
         <v>7</v>
       </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
       <c r="J16" s="20"/>
       <c r="K16" s="39"/>
       <c r="L16" s="39"/>
       <c r="M16" s="38"/>
-      <c r="N16" s="105"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="106"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="109"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="105"/>
+      <c r="S16" s="106"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="88"/>
       <c r="V16" s="40" t="s">
         <v>136</v>
       </c>
@@ -3349,26 +3346,26 @@
       <c r="A17" s="21">
         <v>8</v>
       </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
       <c r="J17" s="20"/>
       <c r="K17" s="39"/>
       <c r="L17" s="39"/>
       <c r="M17" s="38"/>
-      <c r="N17" s="105"/>
-      <c r="O17" s="105"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="106"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="113"/>
-      <c r="U17" s="109"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="105"/>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="88"/>
       <c r="V17" s="40" t="s">
         <v>135</v>
       </c>
@@ -3388,26 +3385,26 @@
       <c r="A18" s="21">
         <v>9</v>
       </c>
-      <c r="B18" s="103"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
       <c r="J18" s="20"/>
       <c r="K18" s="39"/>
       <c r="L18" s="39"/>
       <c r="M18" s="38"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="106"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="113"/>
-      <c r="U18" s="109"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="105"/>
+      <c r="S18" s="106"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="88"/>
       <c r="V18" s="40" t="s">
         <v>133</v>
       </c>
@@ -3427,26 +3424,26 @@
       <c r="A19" s="21">
         <v>10</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
       <c r="J19" s="20"/>
       <c r="K19" s="39"/>
       <c r="L19" s="39"/>
       <c r="M19" s="38"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="106"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="106"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="113"/>
-      <c r="U19" s="109"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="106"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="88"/>
       <c r="V19" s="37"/>
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
@@ -3479,7 +3476,7 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="109"/>
+      <c r="U20" s="88"/>
       <c r="V20" s="37"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
@@ -3492,39 +3489,39 @@
       <c r="AE20" s="23"/>
     </row>
     <row r="21" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A21" s="127" t="s">
+      <c r="A21" s="100" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="128"/>
-      <c r="D21" s="129" t="s">
+      <c r="C21" s="101"/>
+      <c r="D21" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="129"/>
-      <c r="F21" s="127" t="s">
+      <c r="E21" s="102"/>
+      <c r="F21" s="100" t="s">
         <v>128</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127" t="s">
+      <c r="G21" s="100"/>
+      <c r="H21" s="100" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="127"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127" t="s">
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="O21" s="127"/>
-      <c r="P21" s="127"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="109"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="100"/>
+      <c r="S21" s="100"/>
+      <c r="T21" s="100"/>
+      <c r="U21" s="88"/>
       <c r="V21" s="35" t="s">
         <v>125</v>
       </c>
@@ -3541,35 +3538,35 @@
       <c r="AC21" s="22"/>
     </row>
     <row r="22" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A22" s="127"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127" t="s">
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="127" t="s">
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127" t="s">
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="109"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="88"/>
       <c r="V22" s="27" t="s">
         <v>118</v>
       </c>
@@ -3589,40 +3586,40 @@
     </row>
     <row r="23" spans="1:31" ht="13.5" customHeight="1">
       <c r="A23" s="31"/>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112" t="s">
+      <c r="C23" s="99"/>
+      <c r="D23" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112" t="s">
+      <c r="E23" s="99"/>
+      <c r="F23" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112" t="s">
+      <c r="G23" s="99"/>
+      <c r="H23" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112" t="s">
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="112" t="s">
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112" t="s">
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
+      <c r="Q23" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="R23" s="112"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="109"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="99"/>
+      <c r="U23" s="88"/>
       <c r="V23" s="27" t="s">
         <v>114</v>
       </c>
@@ -3644,26 +3641,26 @@
       <c r="A24" s="21">
         <v>1</v>
       </c>
-      <c r="B24" s="130"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103"/>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="109"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="88"/>
       <c r="V24" s="27" t="s">
         <v>110</v>
       </c>
@@ -3685,26 +3682,26 @@
       <c r="A25" s="21">
         <v>2</v>
       </c>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="103"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="109"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="88"/>
       <c r="V25" s="27" t="s">
         <v>106</v>
       </c>
@@ -3726,26 +3723,26 @@
       <c r="A26" s="21">
         <v>3</v>
       </c>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="109"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="98"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="88"/>
       <c r="V26" s="27" t="s">
         <v>103</v>
       </c>
@@ -3767,26 +3764,26 @@
       <c r="A27" s="29">
         <v>4</v>
       </c>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="103"/>
-      <c r="N27" s="124"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="109"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="98"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="88"/>
       <c r="V27" s="27" t="s">
         <v>99</v>
       </c>
@@ -3808,26 +3805,26 @@
       <c r="A28" s="29">
         <v>5</v>
       </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="124"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="109"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="90"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="98"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="90"/>
+      <c r="S28" s="90"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="88"/>
       <c r="V28" s="27" t="s">
         <v>95</v>
       </c>
@@ -3849,26 +3846,26 @@
       <c r="A29" s="29">
         <v>6</v>
       </c>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="109"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="88"/>
       <c r="V29" s="27" t="s">
         <v>91</v>
       </c>
@@ -3890,26 +3887,26 @@
       <c r="A30" s="29">
         <v>7</v>
       </c>
-      <c r="B30" s="130"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="103"/>
-      <c r="M30" s="103"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="109"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="90"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="90"/>
+      <c r="S30" s="90"/>
+      <c r="T30" s="90"/>
+      <c r="U30" s="88"/>
       <c r="V30" s="27" t="s">
         <v>88</v>
       </c>
@@ -3931,26 +3928,26 @@
       <c r="A31" s="29">
         <v>8</v>
       </c>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="103"/>
-      <c r="M31" s="103"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="109"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="90"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="90"/>
+      <c r="S31" s="90"/>
+      <c r="T31" s="90"/>
+      <c r="U31" s="88"/>
       <c r="V31" s="27" t="s">
         <v>84</v>
       </c>
@@ -3972,26 +3969,26 @@
       <c r="A32" s="21">
         <v>9</v>
       </c>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="103"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="103"/>
-      <c r="M32" s="103"/>
-      <c r="N32" s="103"/>
-      <c r="O32" s="103"/>
-      <c r="P32" s="103"/>
-      <c r="Q32" s="103"/>
-      <c r="R32" s="103"/>
-      <c r="S32" s="103"/>
-      <c r="T32" s="103"/>
-      <c r="U32" s="109"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="90"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="90"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="90"/>
+      <c r="S32" s="90"/>
+      <c r="T32" s="90"/>
+      <c r="U32" s="88"/>
       <c r="V32" s="27" t="s">
         <v>80</v>
       </c>
@@ -4013,34 +4010,34 @@
       <c r="A33" s="21">
         <v>10</v>
       </c>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="103"/>
-      <c r="M33" s="103"/>
-      <c r="N33" s="103"/>
-      <c r="O33" s="103"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="103"/>
-      <c r="R33" s="103"/>
-      <c r="S33" s="103"/>
-      <c r="T33" s="103"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="88"/>
-      <c r="X33" s="88"/>
-      <c r="Y33" s="88"/>
-      <c r="Z33" s="88"/>
-      <c r="AA33" s="88"/>
-      <c r="AB33" s="88"/>
-      <c r="AC33" s="89"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="90"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="90"/>
+      <c r="S33" s="90"/>
+      <c r="T33" s="90"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="123"/>
+      <c r="W33" s="124"/>
+      <c r="X33" s="124"/>
+      <c r="Y33" s="124"/>
+      <c r="Z33" s="124"/>
+      <c r="AA33" s="124"/>
+      <c r="AB33" s="124"/>
+      <c r="AC33" s="125"/>
     </row>
     <row r="34" spans="1:29" ht="13.5" customHeight="1">
       <c r="A34" s="12"/>
@@ -4067,7 +4064,7 @@
       <c r="R34" s="12"/>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
-      <c r="U34" s="109"/>
+      <c r="U34" s="88"/>
     </row>
     <row r="35" spans="1:29" ht="13.5" customHeight="1">
       <c r="A35" s="12"/>
@@ -4083,24 +4080,24 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="134" t="s">
+      <c r="H35" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="I35" s="134"/>
-      <c r="J35" s="134"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
       <c r="K35" s="12"/>
       <c r="L35" s="12"/>
       <c r="M35" s="12"/>
-      <c r="N35" s="134" t="s">
+      <c r="N35" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="O35" s="134"/>
-      <c r="P35" s="134"/>
-      <c r="Q35" s="134"/>
-      <c r="R35" s="134"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="109"/>
+      <c r="U35" s="88"/>
     </row>
     <row r="36" spans="1:29" ht="13.5" customHeight="1">
       <c r="A36" s="12"/>
@@ -4122,16 +4119,16 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
-      <c r="N36" s="134" t="s">
+      <c r="N36" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="O36" s="134"/>
-      <c r="P36" s="134"/>
-      <c r="Q36" s="134"/>
-      <c r="R36" s="134"/>
+      <c r="O36" s="91"/>
+      <c r="P36" s="91"/>
+      <c r="Q36" s="91"/>
+      <c r="R36" s="91"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
-      <c r="U36" s="109"/>
+      <c r="U36" s="88"/>
       <c r="AB36" s="11" t="s">
         <v>68</v>
       </c>
@@ -4150,24 +4147,24 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="135" t="s">
+      <c r="H37" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="135"/>
-      <c r="J37" s="135"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
-      <c r="N37" s="135" t="s">
+      <c r="N37" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="O37" s="135"/>
-      <c r="P37" s="135"/>
-      <c r="Q37" s="135"/>
-      <c r="R37" s="135"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="92"/>
+      <c r="Q37" s="92"/>
+      <c r="R37" s="92"/>
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
-      <c r="U37" s="109"/>
+      <c r="U37" s="88"/>
     </row>
     <row r="38" spans="1:29" ht="13.5" customHeight="1">
       <c r="A38" s="12"/>
@@ -4183,20 +4180,20 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
       <c r="M38" s="12"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="132"/>
-      <c r="Q38" s="132"/>
-      <c r="R38" s="132"/>
+      <c r="N38" s="93"/>
+      <c r="O38" s="93"/>
+      <c r="P38" s="93"/>
+      <c r="Q38" s="93"/>
+      <c r="R38" s="93"/>
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
-      <c r="U38" s="109"/>
+      <c r="U38" s="88"/>
     </row>
     <row r="39" spans="1:29" ht="13.5" customHeight="1">
       <c r="A39" s="12"/>
@@ -4206,17 +4203,17 @@
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="98"/>
-      <c r="I39" s="98"/>
-      <c r="J39" s="98"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
       <c r="K39" s="16"/>
       <c r="L39" s="15"/>
       <c r="M39" s="13"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="98"/>
-      <c r="R39" s="98"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
@@ -4229,21 +4226,21 @@
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="109" t="s">
+      <c r="H40" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
       <c r="M40" s="14"/>
       <c r="N40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O40" s="133"/>
-      <c r="P40" s="133"/>
-      <c r="Q40" s="133"/>
-      <c r="R40" s="133"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
@@ -4254,38 +4251,150 @@
     <protectedRange algorithmName="SHA-512" hashValue="MUV4XU74ybY6pf3lbjWE2yH/vb3HGkZBib5I6UWLFu6RKhb+XDGF74V2UX7dSMlpp9Ni9ABYLsehRaWo2IkpeQ==" saltValue="f6Q0WORSbB958GTgrMoKrw==" spinCount="100000" sqref="A1:H3 I1 M1:P7 Q1:Q3 R2:U3 I3 G6 A4:C7 A8:U9 A10:A40 B20:U23 B34:C40 D35:G40 G34:U34 H35:U38 H40:N40 K39:M39 S39:U40 I4:L7 G4:H5 G7:H7" name="範囲1"/>
   </protectedRanges>
   <mergeCells count="200">
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="O40:R40"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="V33:AC33"/>
+    <mergeCell ref="G6:M7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="Y10:Y11"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="U1:U38"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q5:T5"/>
+    <mergeCell ref="I1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="N21:T21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="Q23:T23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:T24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q28:T28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:P25"/>
     <mergeCell ref="N30:P30"/>
     <mergeCell ref="Q30:T30"/>
     <mergeCell ref="B29:C29"/>
@@ -4310,150 +4419,38 @@
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="Q28:T28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:T24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="N21:T21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="I1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="V33:AC33"/>
-    <mergeCell ref="G6:M7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="Y10:Y11"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="U1:U38"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="N37:R37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4471,8 +4468,8 @@
   </sheetPr>
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4509,22 +4506,22 @@
       <c r="G1" s="73"/>
       <c r="H1" s="73"/>
       <c r="I1" s="73"/>
-      <c r="J1" s="144" t="s">
+      <c r="J1" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
       <c r="M1" s="73"/>
       <c r="N1" s="73"/>
       <c r="O1" s="73"/>
       <c r="P1" s="73"/>
       <c r="Q1" s="73"/>
-      <c r="R1" s="145" t="str">
+      <c r="R1" s="174" t="str">
         <f>IF('Input Form'!R1="","",'Input Form'!R1)</f>
         <v/>
       </c>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
       <c r="U1" s="78"/>
     </row>
     <row r="2" spans="1:21">
@@ -4537,9 +4534,9 @@
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
       <c r="I2" s="81"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
       <c r="M2" s="81"/>
       <c r="N2" s="81"/>
       <c r="O2" s="76"/>
@@ -4551,23 +4548,23 @@
       <c r="U2" s="78"/>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="146" t="s">
+      <c r="A3" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="146"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
-      <c r="I3" s="146"/>
-      <c r="J3" s="147" t="str">
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176" t="str">
         <f>IF('Input Form'!J3="","",'Input Form'!J3)</f>
         <v/>
       </c>
-      <c r="K3" s="147"/>
-      <c r="L3" s="147"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
       <c r="M3" s="73"/>
       <c r="N3" s="73"/>
       <c r="O3" s="76"/>
@@ -4586,18 +4583,18 @@
       <c r="C4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="148" t="str">
+      <c r="D4" s="177" t="str">
         <f>IF('Input Form'!D4="","",'Input Form'!D4)</f>
         <v/>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
       <c r="M4" s="73"/>
       <c r="N4" s="73"/>
       <c r="O4" s="73"/>
@@ -4607,12 +4604,12 @@
       <c r="Q4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="143" t="str">
+      <c r="R4" s="172" t="str">
         <f>IF('Input Form'!Q4="","",'Input Form'!Q4)</f>
         <v/>
       </c>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="172"/>
       <c r="U4" s="78"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1">
@@ -4644,13 +4641,13 @@
       <c r="Q5" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="R5" s="143" t="str">
+      <c r="R5" s="172" t="str">
         <f>IF('Input Form'!Q4="","",'Input Form'!Q5)</f>
         <v/>
       </c>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
+      <c r="S5" s="172"/>
+      <c r="T5" s="172"/>
+      <c r="U5" s="172"/>
     </row>
     <row r="6" spans="1:21" ht="12" customHeight="1">
       <c r="A6" s="73" t="s">
@@ -4660,12 +4657,12 @@
       <c r="C6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="143" t="str">
+      <c r="D6" s="172" t="str">
         <f>IF('Input Form'!D6="","",'Input Form'!D6)</f>
         <v/>
       </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
       <c r="G6" s="73"/>
       <c r="H6" s="73"/>
       <c r="I6" s="73"/>
@@ -4681,13 +4678,13 @@
       <c r="Q6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="143" t="str">
+      <c r="R6" s="172" t="str">
         <f>IF('Input Form'!Q5="","",'Input Form'!Q6)</f>
         <v/>
       </c>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="172"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="80" t="s">
@@ -4697,13 +4694,13 @@
       <c r="C7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="143" t="str">
+      <c r="D7" s="172" t="str">
         <f>IF('Input Form'!D7="","",'Input Form'!D7)</f>
         <v/>
       </c>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="172"/>
       <c r="H7" s="73"/>
       <c r="I7" s="73"/>
       <c r="J7" s="73"/>
@@ -4718,94 +4715,94 @@
       <c r="Q7" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="143" t="str">
+      <c r="R7" s="172" t="str">
         <f>IF('Input Form'!Q7="","",'Input Form'!Q7)</f>
         <v/>
       </c>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="172"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="136" t="s">
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136" t="s">
+      <c r="G8" s="156"/>
+      <c r="H8" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="136"/>
+      <c r="I8" s="156"/>
       <c r="J8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="136" t="s">
+      <c r="K8" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136" t="s">
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="O8" s="136"/>
-      <c r="P8" s="137" t="s">
+      <c r="O8" s="156"/>
+      <c r="P8" s="159" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="138"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="136" t="s">
+      <c r="Q8" s="160"/>
+      <c r="R8" s="161"/>
+      <c r="S8" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="T8" s="136"/>
+      <c r="T8" s="156"/>
       <c r="U8" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="3"/>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="153" t="s">
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153" t="s">
+      <c r="G9" s="163"/>
+      <c r="H9" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="153"/>
+      <c r="I9" s="163"/>
       <c r="J9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="154" t="s">
+      <c r="K9" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="153" t="s">
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="153"/>
-      <c r="P9" s="140" t="s">
+      <c r="O9" s="163"/>
+      <c r="P9" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="155" t="s">
+      <c r="Q9" s="170"/>
+      <c r="R9" s="171"/>
+      <c r="S9" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="T9" s="153"/>
+      <c r="T9" s="163"/>
       <c r="U9" s="79" t="s">
         <v>51</v>
       </c>
@@ -4814,23 +4811,23 @@
       <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B10" s="150" t="str">
+      <c r="B10" s="138" t="str">
         <f>IF('Input Form'!B10="","-",'Input Form'!B10)</f>
         <v>-</v>
       </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="136" t="str">
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="156" t="str">
         <f>IF('Input Form'!F10="","-",'Input Form'!F10)</f>
         <v>-</v>
       </c>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136" t="str">
+      <c r="G10" s="156"/>
+      <c r="H10" s="156" t="str">
         <f>IF('Input Form'!H10="","-",'Input Form'!H10)</f>
         <v>-</v>
       </c>
-      <c r="I10" s="136"/>
+      <c r="I10" s="156"/>
       <c r="J10" s="4" t="str">
         <f>IF('Input Form'!J10="","-",'Input Form'!J10)</f>
         <v>-</v>
@@ -4847,22 +4844,22 @@
         <f>IF('Input Form'!K10="(Tgl)","",'Input Form'!K10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="139" t="str">
+      <c r="N10" s="161" t="str">
         <f>IF('Input Form'!N10="","-",'Input Form'!N10)</f>
         <v>-</v>
       </c>
-      <c r="O10" s="136"/>
-      <c r="P10" s="137" t="str">
+      <c r="O10" s="156"/>
+      <c r="P10" s="159" t="str">
         <f>IF('Input Form'!P10="","-",'Input Form'!P10)</f>
         <v>-</v>
       </c>
-      <c r="Q10" s="138"/>
-      <c r="R10" s="139"/>
-      <c r="S10" s="136" t="str">
+      <c r="Q10" s="160"/>
+      <c r="R10" s="161"/>
+      <c r="S10" s="156" t="str">
         <f>IF('Input Form'!S10="","-",'Input Form'!S10)</f>
         <v>-</v>
       </c>
-      <c r="T10" s="136"/>
+      <c r="T10" s="156"/>
       <c r="U10" s="2" t="s">
         <v>59</v>
       </c>
@@ -4871,23 +4868,23 @@
       <c r="A11" s="2">
         <v>2</v>
       </c>
-      <c r="B11" s="150" t="str">
+      <c r="B11" s="138" t="str">
         <f>IF('Input Form'!B11="","-",'Input Form'!B11)</f>
         <v>-</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="136" t="str">
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="156" t="str">
         <f>IF('Input Form'!F11="","-",'Input Form'!F11)</f>
         <v>-</v>
       </c>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136" t="str">
+      <c r="G11" s="156"/>
+      <c r="H11" s="156" t="str">
         <f>IF('Input Form'!H11="","-",'Input Form'!H11)</f>
         <v>-</v>
       </c>
-      <c r="I11" s="136"/>
+      <c r="I11" s="156"/>
       <c r="J11" s="4" t="str">
         <f>IF('Input Form'!J11="","-",'Input Form'!J11)</f>
         <v>-</v>
@@ -4904,22 +4901,22 @@
         <f>IF('Input Form'!K11="(Tgl)","",'Input Form'!K11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="139" t="str">
+      <c r="N11" s="161" t="str">
         <f>IF('Input Form'!N11="","-",'Input Form'!N11)</f>
         <v>-</v>
       </c>
-      <c r="O11" s="136"/>
-      <c r="P11" s="137" t="str">
+      <c r="O11" s="156"/>
+      <c r="P11" s="159" t="str">
         <f>IF('Input Form'!P11="","-",'Input Form'!P11)</f>
         <v>-</v>
       </c>
-      <c r="Q11" s="138"/>
-      <c r="R11" s="139"/>
-      <c r="S11" s="136" t="str">
+      <c r="Q11" s="160"/>
+      <c r="R11" s="161"/>
+      <c r="S11" s="156" t="str">
         <f>IF('Input Form'!S11="","-",'Input Form'!S11)</f>
         <v>-</v>
       </c>
-      <c r="T11" s="136"/>
+      <c r="T11" s="156"/>
       <c r="U11" s="2" t="s">
         <v>59</v>
       </c>
@@ -4928,23 +4925,23 @@
       <c r="A12" s="2">
         <v>3</v>
       </c>
-      <c r="B12" s="150" t="str">
+      <c r="B12" s="138" t="str">
         <f>IF('Input Form'!B12="","-",'Input Form'!B12)</f>
         <v>-</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="136" t="str">
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="156" t="str">
         <f>IF('Input Form'!F12="","-",'Input Form'!F12)</f>
         <v>-</v>
       </c>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136" t="str">
+      <c r="G12" s="156"/>
+      <c r="H12" s="156" t="str">
         <f>IF('Input Form'!H12="","-",'Input Form'!H12)</f>
         <v>-</v>
       </c>
-      <c r="I12" s="136"/>
+      <c r="I12" s="156"/>
       <c r="J12" s="4" t="str">
         <f>IF('Input Form'!J12="","-",'Input Form'!J12)</f>
         <v>-</v>
@@ -4961,22 +4958,22 @@
         <f>IF('Input Form'!K12="(Tgl)","",'Input Form'!K12)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="139" t="str">
+      <c r="N12" s="161" t="str">
         <f>IF('Input Form'!N12="","-",'Input Form'!N12)</f>
         <v>-</v>
       </c>
-      <c r="O12" s="136"/>
-      <c r="P12" s="137" t="str">
+      <c r="O12" s="156"/>
+      <c r="P12" s="159" t="str">
         <f>IF('Input Form'!P12="","-",'Input Form'!P12)</f>
         <v>-</v>
       </c>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="139"/>
-      <c r="S12" s="136" t="str">
+      <c r="Q12" s="160"/>
+      <c r="R12" s="161"/>
+      <c r="S12" s="156" t="str">
         <f>IF('Input Form'!S12="","-",'Input Form'!S12)</f>
         <v>-</v>
       </c>
-      <c r="T12" s="136"/>
+      <c r="T12" s="156"/>
       <c r="U12" s="2" t="s">
         <v>59</v>
       </c>
@@ -4985,23 +4982,23 @@
       <c r="A13" s="2">
         <v>4</v>
       </c>
-      <c r="B13" s="150" t="str">
+      <c r="B13" s="138" t="str">
         <f>IF('Input Form'!B13="","-",'Input Form'!B13)</f>
         <v>-</v>
       </c>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="136" t="str">
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="156" t="str">
         <f>IF('Input Form'!F13="","-",'Input Form'!F13)</f>
         <v>-</v>
       </c>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136" t="str">
+      <c r="G13" s="156"/>
+      <c r="H13" s="156" t="str">
         <f>IF('Input Form'!H13="","-",'Input Form'!H13)</f>
         <v>-</v>
       </c>
-      <c r="I13" s="136"/>
+      <c r="I13" s="156"/>
       <c r="J13" s="4" t="str">
         <f>IF('Input Form'!J13="","-",'Input Form'!J13)</f>
         <v>-</v>
@@ -5018,22 +5015,22 @@
         <f>IF('Input Form'!K13="(Tgl)","",'Input Form'!K13)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="139" t="str">
+      <c r="N13" s="161" t="str">
         <f>IF('Input Form'!N13="","-",'Input Form'!N13)</f>
         <v>-</v>
       </c>
-      <c r="O13" s="136"/>
-      <c r="P13" s="137" t="str">
+      <c r="O13" s="156"/>
+      <c r="P13" s="159" t="str">
         <f>IF('Input Form'!P13="","-",'Input Form'!P13)</f>
         <v>-</v>
       </c>
-      <c r="Q13" s="138"/>
-      <c r="R13" s="139"/>
-      <c r="S13" s="136" t="str">
+      <c r="Q13" s="160"/>
+      <c r="R13" s="161"/>
+      <c r="S13" s="156" t="str">
         <f>IF('Input Form'!S13="","-",'Input Form'!S13)</f>
         <v>-</v>
       </c>
-      <c r="T13" s="136"/>
+      <c r="T13" s="156"/>
       <c r="U13" s="2" t="s">
         <v>59</v>
       </c>
@@ -5042,23 +5039,23 @@
       <c r="A14" s="2">
         <v>5</v>
       </c>
-      <c r="B14" s="150" t="str">
+      <c r="B14" s="138" t="str">
         <f>IF('Input Form'!B14="","-",'Input Form'!B14)</f>
         <v>-</v>
       </c>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="136" t="str">
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="156" t="str">
         <f>IF('Input Form'!F14="","-",'Input Form'!F14)</f>
         <v>-</v>
       </c>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136" t="str">
+      <c r="G14" s="156"/>
+      <c r="H14" s="156" t="str">
         <f>IF('Input Form'!H14="","-",'Input Form'!H14)</f>
         <v>-</v>
       </c>
-      <c r="I14" s="136"/>
+      <c r="I14" s="156"/>
       <c r="J14" s="4" t="str">
         <f>IF('Input Form'!J14="","-",'Input Form'!J14)</f>
         <v>-</v>
@@ -5075,22 +5072,22 @@
         <f>IF('Input Form'!K14="(Tgl)","",'Input Form'!K14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="139" t="str">
+      <c r="N14" s="161" t="str">
         <f>IF('Input Form'!N14="","-",'Input Form'!N14)</f>
         <v>-</v>
       </c>
-      <c r="O14" s="136"/>
-      <c r="P14" s="137" t="str">
+      <c r="O14" s="156"/>
+      <c r="P14" s="159" t="str">
         <f>IF('Input Form'!P14="","-",'Input Form'!P14)</f>
         <v>-</v>
       </c>
-      <c r="Q14" s="138"/>
-      <c r="R14" s="139"/>
-      <c r="S14" s="136" t="str">
+      <c r="Q14" s="160"/>
+      <c r="R14" s="161"/>
+      <c r="S14" s="156" t="str">
         <f>IF('Input Form'!S14="","-",'Input Form'!S14)</f>
         <v>-</v>
       </c>
-      <c r="T14" s="136"/>
+      <c r="T14" s="156"/>
       <c r="U14" s="2" t="s">
         <v>59</v>
       </c>
@@ -5099,23 +5096,23 @@
       <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="150" t="str">
+      <c r="B15" s="138" t="str">
         <f>IF('Input Form'!B15="","-",'Input Form'!B15)</f>
         <v>-</v>
       </c>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="136" t="str">
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="156" t="str">
         <f>IF('Input Form'!F15="","-",'Input Form'!F15)</f>
         <v>-</v>
       </c>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136" t="str">
+      <c r="G15" s="156"/>
+      <c r="H15" s="156" t="str">
         <f>IF('Input Form'!H15="","-",'Input Form'!H15)</f>
         <v>-</v>
       </c>
-      <c r="I15" s="136"/>
+      <c r="I15" s="156"/>
       <c r="J15" s="4" t="str">
         <f>IF('Input Form'!J15="","-",'Input Form'!J15)</f>
         <v>-</v>
@@ -5132,22 +5129,22 @@
         <f>IF('Input Form'!K15="(Tgl)","",'Input Form'!K15)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="139" t="str">
+      <c r="N15" s="161" t="str">
         <f>IF('Input Form'!N15="","-",'Input Form'!N15)</f>
         <v>-</v>
       </c>
-      <c r="O15" s="136"/>
-      <c r="P15" s="137" t="str">
+      <c r="O15" s="156"/>
+      <c r="P15" s="159" t="str">
         <f>IF('Input Form'!P15="","-",'Input Form'!P15)</f>
         <v>-</v>
       </c>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="136" t="str">
+      <c r="Q15" s="160"/>
+      <c r="R15" s="161"/>
+      <c r="S15" s="156" t="str">
         <f>IF('Input Form'!S15="","-",'Input Form'!S15)</f>
         <v>-</v>
       </c>
-      <c r="T15" s="136"/>
+      <c r="T15" s="156"/>
       <c r="U15" s="2" t="s">
         <v>59</v>
       </c>
@@ -5156,23 +5153,23 @@
       <c r="A16" s="2">
         <v>7</v>
       </c>
-      <c r="B16" s="150" t="str">
+      <c r="B16" s="138" t="str">
         <f>IF('Input Form'!B16="","-",'Input Form'!B16)</f>
         <v>-</v>
       </c>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="136" t="str">
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="156" t="str">
         <f>IF('Input Form'!F16="","-",'Input Form'!F16)</f>
         <v>-</v>
       </c>
-      <c r="G16" s="136"/>
-      <c r="H16" s="136" t="str">
+      <c r="G16" s="156"/>
+      <c r="H16" s="156" t="str">
         <f>IF('Input Form'!H16="","-",'Input Form'!H16)</f>
         <v>-</v>
       </c>
-      <c r="I16" s="136"/>
+      <c r="I16" s="156"/>
       <c r="J16" s="4" t="str">
         <f>IF('Input Form'!J16="","-",'Input Form'!J16)</f>
         <v>-</v>
@@ -5189,22 +5186,22 @@
         <f>IF('Input Form'!K16="(Tgl)","",'Input Form'!K16)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="139" t="str">
+      <c r="N16" s="161" t="str">
         <f>IF('Input Form'!N16="","-",'Input Form'!N16)</f>
         <v>-</v>
       </c>
-      <c r="O16" s="136"/>
-      <c r="P16" s="137" t="str">
+      <c r="O16" s="156"/>
+      <c r="P16" s="159" t="str">
         <f>IF('Input Form'!P16="","-",'Input Form'!P16)</f>
         <v>-</v>
       </c>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="139"/>
-      <c r="S16" s="136" t="str">
+      <c r="Q16" s="160"/>
+      <c r="R16" s="161"/>
+      <c r="S16" s="156" t="str">
         <f>IF('Input Form'!S16="","-",'Input Form'!S16)</f>
         <v>-</v>
       </c>
-      <c r="T16" s="136"/>
+      <c r="T16" s="156"/>
       <c r="U16" s="2" t="s">
         <v>59</v>
       </c>
@@ -5213,23 +5210,23 @@
       <c r="A17" s="8">
         <v>8</v>
       </c>
-      <c r="B17" s="150" t="str">
+      <c r="B17" s="138" t="str">
         <f>IF('Input Form'!B17="","-",'Input Form'!B17)</f>
         <v>-</v>
       </c>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="136" t="str">
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="156" t="str">
         <f>IF('Input Form'!F17="","-",'Input Form'!F17)</f>
         <v>-</v>
       </c>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136" t="str">
+      <c r="G17" s="156"/>
+      <c r="H17" s="156" t="str">
         <f>IF('Input Form'!H17="","-",'Input Form'!H17)</f>
         <v>-</v>
       </c>
-      <c r="I17" s="136"/>
+      <c r="I17" s="156"/>
       <c r="J17" s="4" t="str">
         <f>IF('Input Form'!J17="","-",'Input Form'!J17)</f>
         <v>-</v>
@@ -5246,22 +5243,22 @@
         <f>IF('Input Form'!K17="(Tgl)","",'Input Form'!K17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="139" t="str">
+      <c r="N17" s="161" t="str">
         <f>IF('Input Form'!N17="","-",'Input Form'!N17)</f>
         <v>-</v>
       </c>
-      <c r="O17" s="136"/>
-      <c r="P17" s="137" t="str">
+      <c r="O17" s="156"/>
+      <c r="P17" s="159" t="str">
         <f>IF('Input Form'!P17="","-",'Input Form'!P17)</f>
         <v>-</v>
       </c>
-      <c r="Q17" s="138"/>
-      <c r="R17" s="139"/>
-      <c r="S17" s="136" t="str">
+      <c r="Q17" s="160"/>
+      <c r="R17" s="161"/>
+      <c r="S17" s="156" t="str">
         <f>IF('Input Form'!S17="","-",'Input Form'!S17)</f>
         <v>-</v>
       </c>
-      <c r="T17" s="136"/>
+      <c r="T17" s="156"/>
       <c r="U17" s="2" t="s">
         <v>59</v>
       </c>
@@ -5270,23 +5267,23 @@
       <c r="A18" s="8">
         <v>9</v>
       </c>
-      <c r="B18" s="150" t="str">
+      <c r="B18" s="138" t="str">
         <f>IF('Input Form'!B18="","-",'Input Form'!B18)</f>
         <v>-</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="136" t="str">
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="156" t="str">
         <f>IF('Input Form'!F18="","-",'Input Form'!F18)</f>
         <v>-</v>
       </c>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136" t="str">
+      <c r="G18" s="156"/>
+      <c r="H18" s="156" t="str">
         <f>IF('Input Form'!H18="","-",'Input Form'!H18)</f>
         <v>-</v>
       </c>
-      <c r="I18" s="136"/>
+      <c r="I18" s="156"/>
       <c r="J18" s="4" t="str">
         <f>IF('Input Form'!J18="","-",'Input Form'!J18)</f>
         <v>-</v>
@@ -5303,22 +5300,22 @@
         <f>IF('Input Form'!K18="(Tgl)","",'Input Form'!K18)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="139" t="str">
+      <c r="N18" s="161" t="str">
         <f>IF('Input Form'!N18="","-",'Input Form'!N18)</f>
         <v>-</v>
       </c>
-      <c r="O18" s="136"/>
-      <c r="P18" s="137" t="str">
+      <c r="O18" s="156"/>
+      <c r="P18" s="159" t="str">
         <f>IF('Input Form'!P18="","-",'Input Form'!P18)</f>
         <v>-</v>
       </c>
-      <c r="Q18" s="138"/>
-      <c r="R18" s="139"/>
-      <c r="S18" s="136" t="str">
+      <c r="Q18" s="160"/>
+      <c r="R18" s="161"/>
+      <c r="S18" s="156" t="str">
         <f>IF('Input Form'!S18="","-",'Input Form'!S18)</f>
         <v>-</v>
       </c>
-      <c r="T18" s="136"/>
+      <c r="T18" s="156"/>
       <c r="U18" s="2" t="s">
         <v>59</v>
       </c>
@@ -5327,23 +5324,23 @@
       <c r="A19" s="8">
         <v>10</v>
       </c>
-      <c r="B19" s="150" t="str">
+      <c r="B19" s="138" t="str">
         <f>IF('Input Form'!B19="","-",'Input Form'!B19)</f>
         <v>-</v>
       </c>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="136" t="str">
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="156" t="str">
         <f>IF('Input Form'!F19="","-",'Input Form'!F19)</f>
         <v>-</v>
       </c>
-      <c r="G19" s="136"/>
-      <c r="H19" s="136" t="str">
+      <c r="G19" s="156"/>
+      <c r="H19" s="156" t="str">
         <f>IF('Input Form'!H19="","-",'Input Form'!H19)</f>
         <v>-</v>
       </c>
-      <c r="I19" s="136"/>
+      <c r="I19" s="156"/>
       <c r="J19" s="4" t="str">
         <f>IF('Input Form'!J19="","-",'Input Form'!J19)</f>
         <v>-</v>
@@ -5360,22 +5357,22 @@
         <f>IF('Input Form'!K19="(Tgl)","",'Input Form'!K19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="139" t="str">
+      <c r="N19" s="161" t="str">
         <f>IF('Input Form'!N19="","-",'Input Form'!N19)</f>
         <v>-</v>
       </c>
-      <c r="O19" s="136"/>
-      <c r="P19" s="137" t="str">
+      <c r="O19" s="156"/>
+      <c r="P19" s="159" t="str">
         <f>IF('Input Form'!P19="","-",'Input Form'!P19)</f>
         <v>-</v>
       </c>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="136" t="str">
+      <c r="Q19" s="160"/>
+      <c r="R19" s="161"/>
+      <c r="S19" s="156" t="str">
         <f>IF('Input Form'!S19="","-",'Input Form'!S19)</f>
         <v>-</v>
       </c>
-      <c r="T19" s="136"/>
+      <c r="T19" s="156"/>
       <c r="U19" s="2" t="s">
         <v>59</v>
       </c>
@@ -5403,111 +5400,111 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="C21" s="172" t="s">
+      <c r="C21" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="173"/>
-      <c r="E21" s="174"/>
-      <c r="F21" s="156" t="s">
+      <c r="D21" s="147"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156" t="s">
+      <c r="G21" s="164"/>
+      <c r="H21" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156" t="s">
+      <c r="I21" s="164"/>
+      <c r="J21" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="156"/>
-      <c r="P21" s="157" t="s">
+      <c r="K21" s="164"/>
+      <c r="L21" s="164"/>
+      <c r="M21" s="164"/>
+      <c r="N21" s="164"/>
+      <c r="O21" s="164"/>
+      <c r="P21" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="158"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="158"/>
-      <c r="T21" s="158"/>
-      <c r="U21" s="159"/>
+      <c r="Q21" s="166"/>
+      <c r="R21" s="166"/>
+      <c r="S21" s="166"/>
+      <c r="T21" s="166"/>
+      <c r="U21" s="167"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="156"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="177"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156" t="s">
+      <c r="A22" s="164"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
-      <c r="M22" s="156" t="s">
+      <c r="K22" s="164"/>
+      <c r="L22" s="164"/>
+      <c r="M22" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="156"/>
-      <c r="O22" s="156"/>
-      <c r="P22" s="157" t="s">
+      <c r="N22" s="164"/>
+      <c r="O22" s="164"/>
+      <c r="P22" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="Q22" s="158"/>
-      <c r="R22" s="159"/>
-      <c r="S22" s="156" t="s">
+      <c r="Q22" s="166"/>
+      <c r="R22" s="167"/>
+      <c r="S22" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="T22" s="156"/>
-      <c r="U22" s="156"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="164"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="9"/>
       <c r="B23" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="160" t="s">
+      <c r="C23" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="161"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="155" t="s">
+      <c r="D23" s="153"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="153"/>
-      <c r="H23" s="155" t="s">
+      <c r="G23" s="163"/>
+      <c r="H23" s="162" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="153"/>
-      <c r="J23" s="155" t="s">
+      <c r="I23" s="163"/>
+      <c r="J23" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="153"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="155" t="s">
+      <c r="K23" s="163"/>
+      <c r="L23" s="163"/>
+      <c r="M23" s="162" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="160" t="s">
+      <c r="N23" s="163"/>
+      <c r="O23" s="163"/>
+      <c r="P23" s="152" t="s">
         <v>223</v>
       </c>
-      <c r="Q23" s="161"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="155" t="s">
+      <c r="Q23" s="153"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="162" t="s">
         <v>224</v>
       </c>
-      <c r="T23" s="153"/>
-      <c r="U23" s="153"/>
+      <c r="T23" s="163"/>
+      <c r="U23" s="163"/>
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="8">
@@ -5517,45 +5514,45 @@
         <f>IF('Input Form'!B24="","-",'Input Form'!B24)</f>
         <v>-</v>
       </c>
-      <c r="C24" s="167" t="s">
-        <v>231</v>
-      </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="136" t="str">
+      <c r="C24" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="142"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="156" t="str">
         <f>IF('Input Form'!D24="","-",'Input Form'!D24)</f>
         <v>-</v>
       </c>
-      <c r="G24" s="136"/>
-      <c r="H24" s="136" t="str">
+      <c r="G24" s="156"/>
+      <c r="H24" s="156" t="str">
         <f>IF('Input Form'!F24="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136" t="str">
+      <c r="I24" s="156"/>
+      <c r="J24" s="156" t="str">
         <f>IF('Input Form'!H24="","-",'Input Form'!H24)</f>
         <v>-</v>
       </c>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="136" t="str">
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
+      <c r="M24" s="156" t="str">
         <f>IF('Input Form'!K24="","-",'Input Form'!K24)</f>
         <v>-</v>
       </c>
-      <c r="N24" s="136"/>
-      <c r="O24" s="136"/>
-      <c r="P24" s="137" t="str">
+      <c r="N24" s="156"/>
+      <c r="O24" s="156"/>
+      <c r="P24" s="159" t="str">
         <f>IF('Input Form'!N24="","-",'Input Form'!N24)</f>
         <v>-</v>
       </c>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="139"/>
-      <c r="S24" s="136" t="str">
+      <c r="Q24" s="160"/>
+      <c r="R24" s="161"/>
+      <c r="S24" s="156" t="str">
         <f>IF('Input Form'!Q24="","-",'Input Form'!Q24)</f>
         <v>-</v>
       </c>
-      <c r="T24" s="136"/>
-      <c r="U24" s="136"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="8">
@@ -5565,45 +5562,45 @@
         <f>IF('Input Form'!B25="","-",'Input Form'!B25)</f>
         <v>-</v>
       </c>
-      <c r="C25" s="167" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="168"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="136" t="str">
+      <c r="C25" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="142"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="156" t="str">
         <f>IF('Input Form'!D25="","-",'Input Form'!D25)</f>
         <v>-</v>
       </c>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136" t="str">
+      <c r="G25" s="156"/>
+      <c r="H25" s="156" t="str">
         <f>IF('Input Form'!F25="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136" t="str">
+      <c r="I25" s="156"/>
+      <c r="J25" s="156" t="str">
         <f>IF('Input Form'!H25="","-",'Input Form'!H25)</f>
         <v>-</v>
       </c>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136" t="str">
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
+      <c r="M25" s="156" t="str">
         <f>IF('Input Form'!K25="","-",'Input Form'!K25)</f>
         <v>-</v>
       </c>
-      <c r="N25" s="136"/>
-      <c r="O25" s="136"/>
-      <c r="P25" s="137" t="str">
+      <c r="N25" s="156"/>
+      <c r="O25" s="156"/>
+      <c r="P25" s="159" t="str">
         <f>IF('Input Form'!N25="","-",'Input Form'!N25)</f>
         <v>-</v>
       </c>
-      <c r="Q25" s="138"/>
-      <c r="R25" s="139"/>
-      <c r="S25" s="136" t="str">
+      <c r="Q25" s="160"/>
+      <c r="R25" s="161"/>
+      <c r="S25" s="156" t="str">
         <f>IF('Input Form'!Q25="","-",'Input Form'!Q25)</f>
         <v>-</v>
       </c>
-      <c r="T25" s="136"/>
-      <c r="U25" s="136"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="8">
@@ -5613,45 +5610,45 @@
         <f>IF('Input Form'!B26="","-",'Input Form'!B26)</f>
         <v>-</v>
       </c>
-      <c r="C26" s="167" t="s">
+      <c r="C26" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="168"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="136" t="str">
+      <c r="D26" s="142"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="156" t="str">
         <f>IF('Input Form'!D26="","-",'Input Form'!D26)</f>
         <v>-</v>
       </c>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136" t="str">
+      <c r="G26" s="156"/>
+      <c r="H26" s="156" t="str">
         <f>IF('Input Form'!F26="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136" t="str">
+      <c r="I26" s="156"/>
+      <c r="J26" s="156" t="str">
         <f>IF('Input Form'!H26="","-",'Input Form'!H26)</f>
         <v>-</v>
       </c>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="136" t="str">
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156" t="str">
         <f>IF('Input Form'!K26="","-",'Input Form'!K26)</f>
         <v>-</v>
       </c>
-      <c r="N26" s="136"/>
-      <c r="O26" s="136"/>
-      <c r="P26" s="137" t="str">
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="159" t="str">
         <f>IF('Input Form'!N26="","-",'Input Form'!N26)</f>
         <v>-</v>
       </c>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="136" t="str">
+      <c r="Q26" s="160"/>
+      <c r="R26" s="161"/>
+      <c r="S26" s="156" t="str">
         <f>IF('Input Form'!Q26="","-",'Input Form'!Q26)</f>
         <v>-</v>
       </c>
-      <c r="T26" s="136"/>
-      <c r="U26" s="136"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="2">
@@ -5661,45 +5658,45 @@
         <f>IF('Input Form'!B27="","-",'Input Form'!B27)</f>
         <v>-</v>
       </c>
-      <c r="C27" s="167" t="s">
+      <c r="C27" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="168"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="136" t="str">
+      <c r="D27" s="142"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="156" t="str">
         <f>IF('Input Form'!D27="","-",'Input Form'!D27)</f>
         <v>-</v>
       </c>
-      <c r="G27" s="136"/>
-      <c r="H27" s="136" t="str">
+      <c r="G27" s="156"/>
+      <c r="H27" s="156" t="str">
         <f>IF('Input Form'!F27="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I27" s="136"/>
-      <c r="J27" s="136" t="str">
+      <c r="I27" s="156"/>
+      <c r="J27" s="156" t="str">
         <f>IF('Input Form'!H27="","-",'Input Form'!H27)</f>
         <v>-</v>
       </c>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136" t="str">
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156" t="str">
         <f>IF('Input Form'!K27="","-",'Input Form'!K27)</f>
         <v>-</v>
       </c>
-      <c r="N27" s="136"/>
-      <c r="O27" s="136"/>
-      <c r="P27" s="137" t="str">
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="159" t="str">
         <f>IF('Input Form'!N27="","-",'Input Form'!N27)</f>
         <v>-</v>
       </c>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="136" t="str">
+      <c r="Q27" s="160"/>
+      <c r="R27" s="161"/>
+      <c r="S27" s="156" t="str">
         <f>IF('Input Form'!Q27="","-",'Input Form'!Q27)</f>
         <v>-</v>
       </c>
-      <c r="T27" s="136"/>
-      <c r="U27" s="136"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="2">
@@ -5709,45 +5706,45 @@
         <f>IF('Input Form'!B28="","-",'Input Form'!B28)</f>
         <v>-</v>
       </c>
-      <c r="C28" s="167" t="s">
+      <c r="C28" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="168"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="136" t="str">
+      <c r="D28" s="142"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="156" t="str">
         <f>IF('Input Form'!D28="","-",'Input Form'!D28)</f>
         <v>-</v>
       </c>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136" t="str">
+      <c r="G28" s="156"/>
+      <c r="H28" s="156" t="str">
         <f>IF('Input Form'!F28="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136" t="str">
+      <c r="I28" s="156"/>
+      <c r="J28" s="156" t="str">
         <f>IF('Input Form'!H28="","-",'Input Form'!H28)</f>
         <v>-</v>
       </c>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="136" t="str">
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156" t="str">
         <f>IF('Input Form'!K28="","-",'Input Form'!K28)</f>
         <v>-</v>
       </c>
-      <c r="N28" s="136"/>
-      <c r="O28" s="136"/>
-      <c r="P28" s="137" t="str">
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="159" t="str">
         <f>IF('Input Form'!N28="","-",'Input Form'!N28)</f>
         <v>-</v>
       </c>
-      <c r="Q28" s="138"/>
-      <c r="R28" s="139"/>
-      <c r="S28" s="136" t="str">
+      <c r="Q28" s="160"/>
+      <c r="R28" s="161"/>
+      <c r="S28" s="156" t="str">
         <f>IF('Input Form'!Q28="","-",'Input Form'!Q28)</f>
         <v>-</v>
       </c>
-      <c r="T28" s="136"/>
-      <c r="U28" s="136"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="2">
@@ -5757,45 +5754,45 @@
         <f>IF('Input Form'!B29="","-",'Input Form'!B29)</f>
         <v>-</v>
       </c>
-      <c r="C29" s="167" t="s">
+      <c r="C29" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="168"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="136" t="str">
+      <c r="D29" s="142"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="156" t="str">
         <f>IF('Input Form'!D29="","-",'Input Form'!D29)</f>
         <v>-</v>
       </c>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136" t="str">
+      <c r="G29" s="156"/>
+      <c r="H29" s="156" t="str">
         <f>IF('Input Form'!F29="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136" t="str">
+      <c r="I29" s="156"/>
+      <c r="J29" s="156" t="str">
         <f>IF('Input Form'!H29="","-",'Input Form'!H29)</f>
         <v>-</v>
       </c>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136" t="str">
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156" t="str">
         <f>IF('Input Form'!K29="","-",'Input Form'!K29)</f>
         <v>-</v>
       </c>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="137" t="str">
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="159" t="str">
         <f>IF('Input Form'!N29="","-",'Input Form'!N29)</f>
         <v>-</v>
       </c>
-      <c r="Q29" s="138"/>
-      <c r="R29" s="139"/>
-      <c r="S29" s="136" t="str">
+      <c r="Q29" s="160"/>
+      <c r="R29" s="161"/>
+      <c r="S29" s="156" t="str">
         <f>IF('Input Form'!Q29="","-",'Input Form'!Q29)</f>
         <v>-</v>
       </c>
-      <c r="T29" s="136"/>
-      <c r="U29" s="136"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="2">
@@ -5805,45 +5802,45 @@
         <f>IF('Input Form'!B30="","-",'Input Form'!B30)</f>
         <v>-</v>
       </c>
-      <c r="C30" s="167" t="s">
+      <c r="C30" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="168"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="136" t="str">
+      <c r="D30" s="142"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="156" t="str">
         <f>IF('Input Form'!D30="","-",'Input Form'!D30)</f>
         <v>-</v>
       </c>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136" t="str">
+      <c r="G30" s="156"/>
+      <c r="H30" s="156" t="str">
         <f>IF('Input Form'!F30="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136" t="str">
+      <c r="I30" s="156"/>
+      <c r="J30" s="156" t="str">
         <f>IF('Input Form'!H30="","-",'Input Form'!H30)</f>
         <v>-</v>
       </c>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136" t="str">
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
+      <c r="M30" s="156" t="str">
         <f>IF('Input Form'!K30="","-",'Input Form'!K30)</f>
         <v>-</v>
       </c>
-      <c r="N30" s="136"/>
-      <c r="O30" s="136"/>
-      <c r="P30" s="137" t="str">
+      <c r="N30" s="156"/>
+      <c r="O30" s="156"/>
+      <c r="P30" s="159" t="str">
         <f>IF('Input Form'!N30="","-",'Input Form'!N30)</f>
         <v>-</v>
       </c>
-      <c r="Q30" s="138"/>
-      <c r="R30" s="139"/>
-      <c r="S30" s="136" t="str">
+      <c r="Q30" s="160"/>
+      <c r="R30" s="161"/>
+      <c r="S30" s="156" t="str">
         <f>IF('Input Form'!Q30="","-",'Input Form'!Q30)</f>
         <v>-</v>
       </c>
-      <c r="T30" s="136"/>
-      <c r="U30" s="136"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="2">
@@ -5853,45 +5850,45 @@
         <f>IF('Input Form'!B31="","-",'Input Form'!B31)</f>
         <v>-</v>
       </c>
-      <c r="C31" s="167" t="s">
+      <c r="C31" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="168"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="136" t="str">
+      <c r="D31" s="142"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="156" t="str">
         <f>IF('Input Form'!D31="","-",'Input Form'!D31)</f>
         <v>-</v>
       </c>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136" t="str">
+      <c r="G31" s="156"/>
+      <c r="H31" s="156" t="str">
         <f>IF('Input Form'!F31="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136" t="str">
+      <c r="I31" s="156"/>
+      <c r="J31" s="156" t="str">
         <f>IF('Input Form'!H31="","-",'Input Form'!H31)</f>
         <v>-</v>
       </c>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136" t="str">
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156" t="str">
         <f>IF('Input Form'!K31="","-",'Input Form'!K31)</f>
         <v>-</v>
       </c>
-      <c r="N31" s="136"/>
-      <c r="O31" s="136"/>
-      <c r="P31" s="137" t="str">
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="159" t="str">
         <f>IF('Input Form'!N31="","-",'Input Form'!N31)</f>
         <v>-</v>
       </c>
-      <c r="Q31" s="138"/>
-      <c r="R31" s="139"/>
-      <c r="S31" s="136" t="str">
+      <c r="Q31" s="160"/>
+      <c r="R31" s="161"/>
+      <c r="S31" s="156" t="str">
         <f>IF('Input Form'!Q31="","-",'Input Form'!Q31)</f>
         <v>-</v>
       </c>
-      <c r="T31" s="136"/>
-      <c r="U31" s="136"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="8">
@@ -5901,45 +5898,45 @@
         <f>IF('Input Form'!B32="","-",'Input Form'!B32)</f>
         <v>-</v>
       </c>
-      <c r="C32" s="167" t="s">
+      <c r="C32" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="168"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="136" t="str">
+      <c r="D32" s="142"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="156" t="str">
         <f>IF('Input Form'!D32="","-",'Input Form'!D32)</f>
         <v>-</v>
       </c>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136" t="str">
+      <c r="G32" s="156"/>
+      <c r="H32" s="156" t="str">
         <f>IF('Input Form'!F32="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136" t="str">
+      <c r="I32" s="156"/>
+      <c r="J32" s="156" t="str">
         <f>IF('Input Form'!H32="","-",'Input Form'!H32)</f>
         <v>-</v>
       </c>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136" t="str">
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156" t="str">
         <f>IF('Input Form'!K32="","-",'Input Form'!K32)</f>
         <v>-</v>
       </c>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="137" t="str">
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="159" t="str">
         <f>IF('Input Form'!N32="","-",'Input Form'!N32)</f>
         <v>-</v>
       </c>
-      <c r="Q32" s="138"/>
-      <c r="R32" s="139"/>
-      <c r="S32" s="136" t="str">
+      <c r="Q32" s="160"/>
+      <c r="R32" s="161"/>
+      <c r="S32" s="156" t="str">
         <f>IF('Input Form'!Q32="","-",'Input Form'!Q32)</f>
         <v>-</v>
       </c>
-      <c r="T32" s="136"/>
-      <c r="U32" s="136"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="8">
@@ -5949,45 +5946,45 @@
         <f>IF('Input Form'!B33="","-",'Input Form'!B33)</f>
         <v>-</v>
       </c>
-      <c r="C33" s="167" t="s">
+      <c r="C33" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="136" t="str">
+      <c r="D33" s="142"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="156" t="str">
         <f>IF('Input Form'!D33="","-",'Input Form'!D33)</f>
         <v>-</v>
       </c>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136" t="str">
+      <c r="G33" s="156"/>
+      <c r="H33" s="156" t="str">
         <f>IF('Input Form'!F33="","-","インドネシア")</f>
         <v>-</v>
       </c>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136" t="str">
+      <c r="I33" s="156"/>
+      <c r="J33" s="156" t="str">
         <f>IF('Input Form'!H33="","-",'Input Form'!H33)</f>
         <v>-</v>
       </c>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136" t="str">
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
+      <c r="M33" s="156" t="str">
         <f>IF('Input Form'!K33="","-",'Input Form'!K33)</f>
         <v>-</v>
       </c>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="137" t="str">
+      <c r="N33" s="156"/>
+      <c r="O33" s="156"/>
+      <c r="P33" s="159" t="str">
         <f>IF('Input Form'!N33="","-",'Input Form'!N33)</f>
         <v>-</v>
       </c>
-      <c r="Q33" s="138"/>
-      <c r="R33" s="139"/>
-      <c r="S33" s="136" t="str">
+      <c r="Q33" s="160"/>
+      <c r="R33" s="161"/>
+      <c r="S33" s="156" t="str">
         <f>IF('Input Form'!Q33="","-",'Input Form'!Q33)</f>
         <v>-</v>
       </c>
-      <c r="T33" s="136"/>
-      <c r="U33" s="136"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="73"/>
@@ -6033,21 +6030,21 @@
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
       <c r="G35" s="73"/>
-      <c r="H35" s="163" t="s">
+      <c r="H35" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="163"/>
-      <c r="J35" s="163"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="157"/>
       <c r="K35" s="73"/>
       <c r="L35" s="73"/>
       <c r="M35" s="73"/>
-      <c r="N35" s="163" t="s">
+      <c r="N35" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="163"/>
-      <c r="P35" s="163"/>
-      <c r="Q35" s="163"/>
-      <c r="R35" s="163"/>
+      <c r="O35" s="157"/>
+      <c r="P35" s="157"/>
+      <c r="Q35" s="157"/>
+      <c r="R35" s="157"/>
       <c r="S35" s="73"/>
       <c r="T35" s="73"/>
       <c r="U35" s="78"/>
@@ -6083,21 +6080,21 @@
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
       <c r="G37" s="73"/>
-      <c r="H37" s="149" t="s">
+      <c r="H37" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
       <c r="K37" s="73"/>
       <c r="L37" s="73"/>
       <c r="M37" s="73"/>
-      <c r="N37" s="149" t="s">
+      <c r="N37" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="O37" s="149"/>
-      <c r="P37" s="149"/>
-      <c r="Q37" s="149"/>
-      <c r="R37" s="149"/>
+      <c r="O37" s="155"/>
+      <c r="P37" s="155"/>
+      <c r="Q37" s="155"/>
+      <c r="R37" s="155"/>
       <c r="S37" s="73"/>
       <c r="T37" s="73"/>
       <c r="U37" s="78"/>
@@ -6110,17 +6107,17 @@
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
       <c r="G38" s="73"/>
-      <c r="H38" s="164"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="164"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
       <c r="K38" s="73"/>
       <c r="L38" s="73"/>
       <c r="M38" s="73"/>
-      <c r="N38" s="164"/>
-      <c r="O38" s="164"/>
-      <c r="P38" s="164"/>
-      <c r="Q38" s="164"/>
-      <c r="R38" s="164"/>
+      <c r="N38" s="158"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="158"/>
+      <c r="Q38" s="158"/>
+      <c r="R38" s="158"/>
       <c r="S38" s="73"/>
       <c r="T38" s="73"/>
       <c r="U38" s="78"/>
@@ -6133,23 +6130,23 @@
       <c r="E39" s="73"/>
       <c r="F39" s="73"/>
       <c r="G39" s="85"/>
-      <c r="H39" s="166" t="str">
+      <c r="H39" s="137" t="str">
         <f>IF('Input Form'!H39="","",'Input Form'!H39)</f>
         <v/>
       </c>
-      <c r="I39" s="166"/>
-      <c r="J39" s="166"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
       <c r="K39" s="80"/>
       <c r="L39" s="73"/>
       <c r="M39" s="85"/>
-      <c r="N39" s="166" t="str">
+      <c r="N39" s="137" t="str">
         <f>IF('Input Form'!N39="","",'Input Form'!N39)</f>
         <v/>
       </c>
-      <c r="O39" s="166"/>
-      <c r="P39" s="166"/>
-      <c r="Q39" s="166"/>
-      <c r="R39" s="166"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
       <c r="S39" s="73"/>
       <c r="T39" s="73"/>
       <c r="U39" s="78"/>
@@ -6162,24 +6159,24 @@
       <c r="E40" s="73"/>
       <c r="F40" s="73"/>
       <c r="G40" s="73"/>
-      <c r="H40" s="149" t="s">
+      <c r="H40" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
       <c r="K40" s="75"/>
       <c r="L40" s="75"/>
       <c r="M40" s="75"/>
       <c r="N40" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="O40" s="165" t="str">
+      <c r="O40" s="136" t="str">
         <f>IF('Input Form'!O40="","",'Input Form'!O40)</f>
         <v/>
       </c>
-      <c r="P40" s="165"/>
-      <c r="Q40" s="165"/>
-      <c r="R40" s="165"/>
+      <c r="P40" s="136"/>
+      <c r="Q40" s="136"/>
+      <c r="R40" s="136"/>
       <c r="S40" s="73"/>
       <c r="T40" s="73"/>
       <c r="U40" s="78"/>
@@ -6234,6 +6231,172 @@
     </row>
   </sheetData>
   <mergeCells count="184">
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="R5:U5"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="P21:U21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
     <mergeCell ref="O40:R40"/>
     <mergeCell ref="N39:R39"/>
     <mergeCell ref="B19:E19"/>
@@ -6252,172 +6415,6 @@
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="H40:J40"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="P21:U21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="J1:L2"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="R5:U5"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:G7"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
